--- a/simdak/template/Simdak-Paud.xlsx
+++ b/simdak/template/Simdak-Paud.xlsx
@@ -16,12 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Email</t>
+    <t>No</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Jenis Komponen Id</t>
+  </si>
+  <si>
+    <t>Jenis Penggunaan Id</t>
+  </si>
+  <si>
+    <t>Jenisbelanja</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Hargasatuan</t>
+  </si>
+  <si>
+    <t>Data Id</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
   </si>
 </sst>
 </file>
@@ -37,15 +58,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -53,17 +80,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -71,6 +414,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:I101"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="No" dataDxfId="9"/>
+    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="8"/>
+    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="7"/>
+    <tableColumn id="4" name="Jenisbelanja" dataDxfId="6"/>
+    <tableColumn id="5" name="Qty" dataDxfId="5"/>
+    <tableColumn id="6" name="Satuan" dataDxfId="4"/>
+    <tableColumn id="7" name="Hargasatuan" dataDxfId="3"/>
+    <tableColumn id="8" name="Data Id" dataDxfId="2"/>
+    <tableColumn id="9" name="Jumlah" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,29 +723,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="1">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="7">
+        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/simdak/template/Simdak-Paud.xlsx
+++ b/simdak/template/Simdak-Paud.xlsx
@@ -219,18 +219,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -385,6 +373,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -392,18 +389,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -417,17 +417,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I101"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="9"/>
-    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="8"/>
-    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="7"/>
-    <tableColumn id="4" name="Jenisbelanja" dataDxfId="6"/>
-    <tableColumn id="5" name="Qty" dataDxfId="5"/>
-    <tableColumn id="6" name="Satuan" dataDxfId="4"/>
-    <tableColumn id="7" name="Hargasatuan" dataDxfId="3"/>
-    <tableColumn id="8" name="Data Id" dataDxfId="2"/>
+    <tableColumn id="1" name="No" dataDxfId="8"/>
+    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="7"/>
+    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="6"/>
+    <tableColumn id="4" name="Jenisbelanja" dataDxfId="5"/>
+    <tableColumn id="5" name="Qty" dataDxfId="4"/>
+    <tableColumn id="6" name="Satuan" dataDxfId="3"/>
+    <tableColumn id="7" name="Hargasatuan" dataDxfId="2"/>
+    <tableColumn id="8" name="Data Id" dataDxfId="1"/>
     <tableColumn id="9" name="Jumlah" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</calculatedColumnFormula>
     </tableColumn>
@@ -726,7 +726,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,9 +770,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -786,9 +784,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -802,9 +798,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -818,9 +812,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -834,9 +826,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -850,9 +840,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -866,9 +854,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -882,9 +868,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -898,9 +882,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -914,9 +896,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -930,9 +910,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -946,9 +924,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -962,9 +938,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -978,9 +952,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -994,9 +966,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1010,9 +980,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1026,9 +994,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1042,9 +1008,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1058,9 +1022,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1074,9 +1036,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1090,9 +1050,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1106,9 +1064,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1122,9 +1078,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1138,9 +1092,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1154,9 +1106,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1170,9 +1120,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1186,9 +1134,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1202,9 +1148,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1218,9 +1162,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1234,9 +1176,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1250,9 +1190,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1266,9 +1204,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1282,9 +1218,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1298,9 +1232,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1314,9 +1246,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1330,9 +1260,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1346,9 +1274,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1362,9 +1288,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1378,9 +1302,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1394,9 +1316,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1410,9 +1330,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1426,9 +1344,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1442,9 +1358,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1458,9 +1372,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1474,9 +1386,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1490,9 +1400,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1506,9 +1414,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1522,9 +1428,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1538,9 +1442,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1554,9 +1456,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1570,9 +1470,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1586,9 +1484,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1602,9 +1498,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1618,9 +1512,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1634,9 +1526,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1650,9 +1540,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1666,9 +1554,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1682,9 +1568,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1698,9 +1582,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1714,9 +1596,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1730,9 +1610,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1746,9 +1624,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1762,9 +1638,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1778,9 +1652,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1794,9 +1666,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1810,9 +1680,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1826,9 +1694,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1842,9 +1708,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1858,9 +1722,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1874,9 +1736,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1890,9 +1750,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1906,9 +1764,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1922,9 +1778,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1938,9 +1792,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1954,9 +1806,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1970,9 +1820,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1986,9 +1834,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2002,9 +1848,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2018,9 +1862,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2034,9 +1876,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2050,9 +1890,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2066,9 +1904,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2082,9 +1918,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2098,9 +1932,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2114,9 +1946,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2130,9 +1960,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2146,9 +1974,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2162,9 +1988,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2178,9 +2002,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2194,9 +2016,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2210,9 +2030,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2226,9 +2044,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2242,9 +2058,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2258,9 +2072,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2274,9 +2086,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2290,9 +2100,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2306,9 +2114,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2322,9 +2128,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2338,9 +2142,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2354,9 +2156,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>

--- a/simdak/template/Simdak-Paud.xlsx
+++ b/simdak/template/Simdak-Paud.xlsx
@@ -8,15 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="REFERENSI" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="bahan_pembelajaran_peserta_didik_yang_dibutuhkan_sesuai_dengan_kegiatan_tematik">Sheet1!#REF!</definedName>
+    <definedName name="Jenis">#REF!</definedName>
+    <definedName name="Kegiatan_Lainnya">Sheet1!#REF!</definedName>
+    <definedName name="Kegiatan_Pembelajaran_dan_Bermain">Sheet1!#REF!</definedName>
+    <definedName name="Kegiatan_Pendukung">Sheet1!#REF!</definedName>
+    <definedName name="penyediaan_alat_mengajar_bagi_pendidik">Sheet1!#REF!</definedName>
+    <definedName name="penyediaan_Alat_Permainan_Edukatif__APE">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -25,12 +33,6 @@
   </si>
   <si>
     <t>Jenis Penggunaan Id</t>
-  </si>
-  <si>
-    <t>Jenisbelanja</t>
-  </si>
-  <si>
-    <t>Qty</t>
   </si>
   <si>
     <t>Satuan</t>
@@ -44,12 +46,72 @@
   <si>
     <t>Jumlah</t>
   </si>
+  <si>
+    <t>Penggunaan</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Kode Penggunaan</t>
+  </si>
+  <si>
+    <t>memberi transport pendidik</t>
+  </si>
+  <si>
+    <t>Kegiatan Pembelajaran dan Bermain</t>
+  </si>
+  <si>
+    <t>Kegiatan Pendukung</t>
+  </si>
+  <si>
+    <t>Kegiatan Lainnya</t>
+  </si>
+  <si>
+    <t>Kode Jenis</t>
+  </si>
+  <si>
+    <t>bahan pembelajaran peserta didik yang dibutuhkan sesuai dengan kegiatan tematik</t>
+  </si>
+  <si>
+    <t>penyediaan Alat Permainan Edukatif (APE)</t>
+  </si>
+  <si>
+    <t>penyediaan alat mengajar bagi pendidik</t>
+  </si>
+  <si>
+    <t>penyediaan makanan tambahan</t>
+  </si>
+  <si>
+    <t>pembelian alat-alat deteksi dini tumbuh kembang, pembelian obat-obatan ringan, dan isi kotak Pertolongan Pertama pada Kecelakaan (P3K)</t>
+  </si>
+  <si>
+    <t>kegiatan pertemuan dengan orang tua/wali murid (kegiatan parenting)</t>
+  </si>
+  <si>
+    <t>penyediaan buku administrasi</t>
+  </si>
+  <si>
+    <t>perawatan sarana dan prasarana</t>
+  </si>
+  <si>
+    <t>penyediaan alat- alat publikasi PAUD</t>
+  </si>
+  <si>
+    <t>langganan listrik, telepon/internet, air</t>
+  </si>
+  <si>
+    <t>Nama Barang</t>
+  </si>
+  <si>
+    <t>Jumlah Barang</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +119,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,8 +148,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -180,25 +269,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -417,20 +635,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I101"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="8"/>
-    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="7"/>
-    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="6"/>
-    <tableColumn id="4" name="Jenisbelanja" dataDxfId="5"/>
-    <tableColumn id="5" name="Qty" dataDxfId="4"/>
-    <tableColumn id="6" name="Satuan" dataDxfId="3"/>
-    <tableColumn id="7" name="Hargasatuan" dataDxfId="2"/>
-    <tableColumn id="8" name="Data Id" dataDxfId="1"/>
-    <tableColumn id="9" name="Jumlah" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K101" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:K101"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="No" dataDxfId="14"/>
+    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="13"/>
+    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="12"/>
+    <tableColumn id="4" name="Nama Barang" dataDxfId="11"/>
+    <tableColumn id="5" name="Jumlah Barang" dataDxfId="10"/>
+    <tableColumn id="6" name="Satuan" dataDxfId="9"/>
+    <tableColumn id="7" name="Hargasatuan" dataDxfId="8"/>
+    <tableColumn id="13" name="Kode Jenis" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" name="Kode Penggunaan" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Data Id" dataDxfId="7"/>
+    <tableColumn id="9" name="Jumlah" dataDxfId="6">
+      <calculatedColumnFormula>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D12" totalsRowShown="0">
+  <autoFilter ref="A1:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Jenis"/>
+    <tableColumn id="2" name="Kode Jenis"/>
+    <tableColumn id="3" name="Penggunaan"/>
+    <tableColumn id="4" name="Kode Penggunaan"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A14:B17" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A14:B17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Jenis"/>
+    <tableColumn id="2" name="Kode Jenis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -732,16 +980,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -751,1421 +1001,2227 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I53" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I57" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I58" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I60" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I62" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I64" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I65" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I69" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I70" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I74" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I76" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I78" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I79" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I83" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I84" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I85" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I86" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I87" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I88" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H89" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I89" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I90" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I91" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I92" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I93" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I94" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I95" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I96" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I97" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J97" s="3"/>
+      <c r="K97" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I98" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I99" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="1">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I100" s="3" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="7">
-        <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Hargasatuan]]</f>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I101" s="7" t="str">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" s="6">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2174,29 +3230,249 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>REFERENSI!$C$2:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C101</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>REFERENSI!$A$15:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="CE16" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/simdak/template/Simdak-Paud.xlsx
+++ b/simdak/template/Simdak-Paud.xlsx
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Satuan</t>
-  </si>
-  <si>
-    <t>Hargasatuan</t>
   </si>
   <si>
     <t>Data Id</t>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Jumlah Barang</t>
+  </si>
+  <si>
+    <t>Harga Satuan</t>
   </si>
 </sst>
 </file>
@@ -322,49 +322,30 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </left>
-        <right/>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -391,33 +372,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -437,6 +391,52 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -644,16 +644,16 @@
     <tableColumn id="4" name="Nama Barang" dataDxfId="11"/>
     <tableColumn id="5" name="Jumlah Barang" dataDxfId="10"/>
     <tableColumn id="6" name="Satuan" dataDxfId="9"/>
-    <tableColumn id="7" name="Hargasatuan" dataDxfId="8"/>
-    <tableColumn id="13" name="Kode Jenis" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="7" name="Harga Satuan" dataDxfId="8"/>
+    <tableColumn id="13" name="Kode Jenis" dataDxfId="7">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Kode Penggunaan" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="11" name="Kode Penggunaan" dataDxfId="6">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Data Id" dataDxfId="7"/>
-    <tableColumn id="9" name="Jumlah" dataDxfId="6">
-      <calculatedColumnFormula>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</calculatedColumnFormula>
+    <tableColumn id="8" name="Data Id" dataDxfId="5"/>
+    <tableColumn id="9" name="Jumlah" dataDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A14:B17" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A14:B17" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="A14:B17"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Jenis"/>
@@ -974,14 +974,14 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -1001,28 +1001,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,16 +1034,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="5">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1056,16 +1056,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1078,16 +1078,16 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1100,16 +1100,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1122,16 +1122,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1144,16 +1144,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1166,16 +1166,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1188,16 +1188,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1210,16 +1210,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1232,16 +1232,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,16 +1254,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1276,16 +1276,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1298,16 +1298,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1320,16 +1320,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1342,16 +1342,16 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1364,16 +1364,16 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1386,16 +1386,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1408,16 +1408,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1430,16 +1430,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1474,16 +1474,16 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,16 +1496,16 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1518,16 +1518,16 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1540,16 +1540,16 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1562,16 +1562,16 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1584,16 +1584,16 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1606,16 +1606,16 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1628,16 +1628,16 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1650,16 +1650,16 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1672,16 +1672,16 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1694,16 +1694,16 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1716,16 +1716,16 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1738,16 +1738,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1760,16 +1760,16 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1782,16 +1782,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1804,16 +1804,16 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1826,16 +1826,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1848,16 +1848,16 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1870,16 +1870,16 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1892,16 +1892,16 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1936,16 +1936,16 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1958,16 +1958,16 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1980,16 +1980,16 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2002,16 +2002,16 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,16 +2024,16 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2046,16 +2046,16 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2068,16 +2068,16 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2090,16 +2090,16 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2112,16 +2112,16 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2134,16 +2134,16 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2156,16 +2156,16 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2178,16 +2178,16 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2200,16 +2200,16 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2222,16 +2222,16 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2244,16 +2244,16 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2266,16 +2266,16 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2288,16 +2288,16 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2310,16 +2310,16 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2332,16 +2332,16 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2354,16 +2354,16 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2398,16 +2398,16 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2420,16 +2420,16 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2442,16 +2442,16 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2464,16 +2464,16 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2486,16 +2486,16 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2530,16 +2530,16 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2552,16 +2552,16 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2574,16 +2574,16 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2596,16 +2596,16 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2618,16 +2618,16 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2640,16 +2640,16 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2662,16 +2662,16 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2684,16 +2684,16 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2706,16 +2706,16 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2728,16 +2728,16 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I79" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2750,16 +2750,16 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I80" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2772,16 +2772,16 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I81" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2794,16 +2794,16 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I82" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2816,16 +2816,16 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I83" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2838,16 +2838,16 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I84" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2860,16 +2860,16 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I85" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2882,16 +2882,16 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I86" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2904,16 +2904,16 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I87" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2926,16 +2926,16 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I88" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2948,16 +2948,16 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I89" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2970,16 +2970,16 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I90" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2992,16 +2992,16 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I91" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3014,16 +3014,16 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I92" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3036,16 +3036,16 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I93" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3058,16 +3058,16 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I94" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3080,16 +3080,16 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I95" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3102,16 +3102,16 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I96" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3124,16 +3124,16 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I97" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3146,16 +3146,16 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I98" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3168,16 +3168,16 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I99" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3190,16 +3190,16 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I100" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3212,16 +3212,16 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Komponen Id]],Table6[],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="I101" s="7" t="str">
-        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Jenis Penggunaan Id]],Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="6">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Hargasatuan]]</f>
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
     </row>
@@ -3269,27 +3269,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -3311,13 +3311,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>26</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>27</v>
@@ -3381,13 +3381,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>29</v>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -3423,13 +3423,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>31</v>
@@ -3437,15 +3437,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11">
         <v>3</v>

--- a/simdak/template/Simdak-Paud.xlsx
+++ b/simdak/template/Simdak-Paud.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -320,7 +320,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="17">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -413,52 +413,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -635,22 +589,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K101" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:K101"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="No" dataDxfId="14"/>
-    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="13"/>
-    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="12"/>
-    <tableColumn id="4" name="Nama Barang" dataDxfId="11"/>
-    <tableColumn id="5" name="Jumlah Barang" dataDxfId="10"/>
-    <tableColumn id="6" name="Satuan" dataDxfId="9"/>
-    <tableColumn id="7" name="Harga Satuan" dataDxfId="8"/>
-    <tableColumn id="13" name="Kode Jenis" dataDxfId="7">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="Kode Penggunaan" dataDxfId="6">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:I101"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="No" dataDxfId="12"/>
+    <tableColumn id="2" name="Jenis Komponen Id" dataDxfId="11"/>
+    <tableColumn id="3" name="Jenis Penggunaan Id" dataDxfId="10"/>
+    <tableColumn id="4" name="Nama Barang" dataDxfId="9"/>
+    <tableColumn id="5" name="Jumlah Barang" dataDxfId="8"/>
+    <tableColumn id="6" name="Satuan" dataDxfId="7"/>
+    <tableColumn id="7" name="Harga Satuan" dataDxfId="6"/>
     <tableColumn id="8" name="Data Id" dataDxfId="5"/>
     <tableColumn id="9" name="Jumlah" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</calculatedColumnFormula>
@@ -971,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -985,12 +933,10 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1013,19 +959,13 @@
         <v>26</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1033,21 +973,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1055,21 +987,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+      <c r="I3" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1077,21 +1001,13 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1099,21 +1015,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1121,21 +1029,13 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1143,21 +1043,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1165,21 +1057,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1187,21 +1071,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1209,21 +1085,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1231,21 +1099,13 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1253,21 +1113,13 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1275,21 +1127,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1297,21 +1141,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1319,21 +1155,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1341,21 +1169,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1363,21 +1183,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1385,21 +1197,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1407,21 +1211,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1429,21 +1225,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1451,21 +1239,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1473,21 +1253,13 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1495,21 +1267,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1517,21 +1281,13 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1539,21 +1295,13 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1561,21 +1309,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1583,21 +1323,13 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1605,21 +1337,13 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1627,21 +1351,13 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1649,21 +1365,13 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1671,21 +1379,13 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1693,21 +1393,13 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1715,21 +1407,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I33" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+      <c r="I33" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1737,21 +1421,13 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1759,21 +1435,13 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I35" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1781,21 +1449,13 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1803,21 +1463,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1825,21 +1477,13 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+      <c r="I38" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1847,21 +1491,13 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1869,21 +1505,13 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I40" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1891,21 +1519,13 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I41" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1913,21 +1533,13 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I42" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1935,21 +1547,13 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I43" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1957,21 +1561,13 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I44" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1979,21 +1575,13 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I45" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2001,21 +1589,13 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I46" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+      <c r="I46" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2023,21 +1603,13 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I47" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2045,21 +1617,13 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I48" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2067,21 +1631,13 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I49" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2089,21 +1645,13 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I50" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2111,21 +1659,13 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I51" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+      <c r="I51" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2133,21 +1673,13 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I52" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+      <c r="I52" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2155,21 +1687,13 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I53" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+      <c r="I53" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2177,21 +1701,13 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I54" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+      <c r="I54" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2199,21 +1715,13 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I55" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="I55" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2221,21 +1729,13 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I56" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+      <c r="I56" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2243,21 +1743,13 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I57" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+      <c r="I57" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2265,21 +1757,13 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I58" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+      <c r="I58" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2287,21 +1771,13 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I59" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+      <c r="I59" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2309,21 +1785,13 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I60" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+      <c r="I60" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2331,21 +1799,13 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I61" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2353,21 +1813,13 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I62" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+      <c r="I62" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2375,21 +1827,13 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I63" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+      <c r="I63" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2397,21 +1841,13 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I64" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+      <c r="I64" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2419,21 +1855,13 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I65" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+      <c r="I65" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2441,21 +1869,13 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2463,21 +1883,13 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2485,21 +1897,13 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I68" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2507,21 +1911,13 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I69" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2529,21 +1925,13 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I70" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+      <c r="I70" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2551,21 +1939,13 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I71" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+      <c r="I71" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2573,21 +1953,13 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I72" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+      <c r="I72" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2595,21 +1967,13 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I73" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+      <c r="I73" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2617,21 +1981,13 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+      <c r="I74" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2639,21 +1995,13 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I75" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+      <c r="I75" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2661,21 +2009,13 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I76" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+      <c r="I76" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2683,21 +2023,13 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I77" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+      <c r="I77" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2705,21 +2037,13 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I78" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+      <c r="I78" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2727,21 +2051,13 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I79" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+      <c r="I79" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2749,21 +2065,13 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I80" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+      <c r="I80" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2771,21 +2079,13 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I81" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H81" s="3"/>
+      <c r="I81" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2793,21 +2093,13 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I82" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H82" s="3"/>
+      <c r="I82" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2815,21 +2107,13 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I83" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H83" s="3"/>
+      <c r="I83" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2837,21 +2121,13 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I84" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H84" s="3"/>
+      <c r="I84" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2859,21 +2135,13 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I85" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H85" s="3"/>
+      <c r="I85" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2881,21 +2149,13 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I86" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H86" s="3"/>
+      <c r="I86" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2903,21 +2163,13 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I87" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+      <c r="I87" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2925,21 +2177,13 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I88" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
+      <c r="I88" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2947,21 +2191,13 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I89" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+      <c r="I89" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2969,21 +2205,13 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I90" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H90" s="3"/>
+      <c r="I90" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2991,21 +2219,13 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I91" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H91" s="3"/>
+      <c r="I91" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3013,21 +2233,13 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I92" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H92" s="3"/>
+      <c r="I92" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3035,21 +2247,13 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I93" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+      <c r="I93" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3057,21 +2261,13 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I94" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+      <c r="I94" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3079,21 +2275,13 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I95" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H95" s="3"/>
+      <c r="I95" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3101,21 +2289,13 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I96" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+      <c r="I96" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3123,21 +2303,13 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I97" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H97" s="3"/>
+      <c r="I97" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3145,21 +2317,13 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I98" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+      <c r="I98" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3167,21 +2331,13 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I99" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+      <c r="I99" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3189,21 +2345,13 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I100" s="3" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="1">
-        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+      <c r="I100" s="1">
+        <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3211,16 +2359,8 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="7" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Komponen Id]]),Table6[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="I101" s="7" t="str">
-        <f>IFERROR(VLOOKUP(TRIM(Table1[[#This Row],[Jenis Penggunaan Id]]),Table5[[Penggunaan]:[Kode Penggunaan]],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="7"/>
-      <c r="K101" s="6">
+      <c r="H101" s="7"/>
+      <c r="I101" s="6">
         <f>Table1[[#This Row],[Jumlah Barang]]*Table1[[#This Row],[Harga Satuan]]</f>
         <v>0</v>
       </c>
